--- a/appendix/mean_4ds_f1_macro.xlsx
+++ b/appendix/mean_4ds_f1_macro.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.236</v>
+        <v>0.25</v>
       </c>
       <c r="D5" t="n">
-        <v>0.377</v>
+        <v>0.398</v>
       </c>
       <c r="E5" t="n">
-        <v>0.433</v>
+        <v>0.447</v>
       </c>
       <c r="F5" t="n">
-        <v>0.484</v>
+        <v>0.503</v>
       </c>
       <c r="G5" t="n">
-        <v>0.509</v>
+        <v>0.532</v>
       </c>
       <c r="H5" t="n">
-        <v>0.53</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="6">
@@ -618,20 +618,20 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.236</v>
+        <v>0.25</v>
       </c>
       <c r="D7" t="n">
-        <v>0.389</v>
+        <v>0.398</v>
       </c>
       <c r="E7" t="n">
-        <v>0.436</v>
+        <v>0.447</v>
       </c>
       <c r="F7" t="n">
         <v>0.505</v>
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.218</v>
+        <v>0.228</v>
       </c>
       <c r="D8" t="n">
-        <v>0.458</v>
+        <v>0.478</v>
       </c>
       <c r="E8" t="n">
-        <v>0.53</v>
+        <v>0.523</v>
       </c>
       <c r="F8" t="n">
-        <v>0.591</v>
+        <v>0.582</v>
       </c>
       <c r="G8" t="n">
-        <v>0.622</v>
+        <v>0.621</v>
       </c>
       <c r="H8" t="n">
-        <v>0.635</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.271</v>
+        <v>0.281</v>
       </c>
       <c r="C9" t="n">
-        <v>0.387</v>
+        <v>0.417</v>
       </c>
       <c r="D9" t="n">
-        <v>0.511</v>
+        <v>0.523</v>
       </c>
       <c r="E9" t="n">
-        <v>0.541</v>
+        <v>0.549</v>
       </c>
       <c r="F9" t="n">
         <v>0.5669999999999999</v>
       </c>
       <c r="G9" t="n">
-        <v>0.601</v>
+        <v>0.597</v>
       </c>
       <c r="H9" t="n">
-        <v>0.616</v>
+        <v>0.612</v>
       </c>
     </row>
   </sheetData>
